--- a/hardware/TIYCS_main/TIYCS_main-top-pos.xlsx
+++ b/hardware/TIYCS_main/TIYCS_main-top-pos.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="146">
   <si>
     <t>TIYCS_main-top-pos</t>
   </si>
@@ -64,10 +64,13 @@
     <t>10uF</t>
   </si>
   <si>
-    <t>16.510000</t>
-  </si>
-  <si>
-    <t>-32.950000</t>
+    <t>C_0603_1608Metric</t>
+  </si>
+  <si>
+    <t>17.960000</t>
+  </si>
+  <si>
+    <t>-21.330000</t>
   </si>
   <si>
     <t>C3</t>
@@ -76,9 +79,6 @@
     <t>22uF</t>
   </si>
   <si>
-    <t>C_0603_1608Metric</t>
-  </si>
-  <si>
     <t>88.670000</t>
   </si>
   <si>
@@ -88,10 +88,10 @@
     <t>C4</t>
   </si>
   <si>
-    <t>14.200000</t>
-  </si>
-  <si>
-    <t>-32.890000</t>
+    <t>14.330000</t>
+  </si>
+  <si>
+    <t>-21.350000</t>
   </si>
   <si>
     <t>C5</t>
@@ -106,25 +106,43 @@
     <t>C6</t>
   </si>
   <si>
-    <t>57.730000</t>
-  </si>
-  <si>
-    <t>-81.520000</t>
+    <t>57.300000</t>
+  </si>
+  <si>
+    <t>-88.800000</t>
+  </si>
+  <si>
+    <t>-90.000000</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>-83.490000</t>
+    <t>55.950000</t>
+  </si>
+  <si>
+    <t>-87.885000</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>60.170000</t>
-  </si>
-  <si>
-    <t>-79.740000</t>
+    <t>62.650000</t>
+  </si>
+  <si>
+    <t>-87.630000</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>10nF</t>
+  </si>
+  <si>
+    <t>63.300000</t>
+  </si>
+  <si>
+    <t>-91.280000</t>
   </si>
   <si>
     <t>D1</t>
@@ -136,10 +154,10 @@
     <t>LED_0603_1608Metric</t>
   </si>
   <si>
-    <t>50.000000</t>
-  </si>
-  <si>
-    <t>-98.550000</t>
+    <t>21.450000</t>
+  </si>
+  <si>
+    <t>-98.250000</t>
   </si>
   <si>
     <t>D2</t>
@@ -148,19 +166,22 @@
     <t>D_SMA</t>
   </si>
   <si>
-    <t>19.150000</t>
-  </si>
-  <si>
-    <t>-44.460000</t>
+    <t>90.390000</t>
+  </si>
+  <si>
+    <t>-26.370000</t>
+  </si>
+  <si>
+    <t>90.000000</t>
   </si>
   <si>
     <t>D3</t>
   </si>
   <si>
-    <t>14.830000</t>
-  </si>
-  <si>
-    <t>-22.240000</t>
+    <t>14.960000</t>
+  </si>
+  <si>
+    <t>-10.700000</t>
   </si>
   <si>
     <t>180.000000</t>
@@ -175,43 +196,10 @@
     <t>GCT_USB4105-GF-A</t>
   </si>
   <si>
-    <t>2.605000</t>
-  </si>
-  <si>
-    <t>-24.527500</t>
-  </si>
-  <si>
-    <t>-90.000000</t>
-  </si>
-  <si>
-    <t>J6</t>
-  </si>
-  <si>
-    <t>Terminal</t>
-  </si>
-  <si>
-    <t>TerminalBlock_Altech_AK300-2_P5.00mm</t>
-  </si>
-  <si>
-    <t>6.300000</t>
-  </si>
-  <si>
-    <t>-77.580000</t>
-  </si>
-  <si>
-    <t>J7</t>
-  </si>
-  <si>
-    <t>Barrel_Jack_Switch</t>
-  </si>
-  <si>
-    <t>BarrelJack_CLIFF_FC681465S_SMT_Horizontal</t>
-  </si>
-  <si>
-    <t>8.200000</t>
-  </si>
-  <si>
-    <t>-50.000000</t>
+    <t>2.735000</t>
+  </si>
+  <si>
+    <t>-12.987500</t>
   </si>
   <si>
     <t>Q1</t>
@@ -223,22 +211,19 @@
     <t>TO-263-2</t>
   </si>
   <si>
-    <t>41.760000</t>
+    <t>32.585000</t>
   </si>
   <si>
     <t>-17.880000</t>
   </si>
   <si>
-    <t>90.000000</t>
-  </si>
-  <si>
     <t>Q2</t>
   </si>
   <si>
     <t>68.710000</t>
   </si>
   <si>
-    <t>-46.170000</t>
+    <t>-59.180000</t>
   </si>
   <si>
     <t>Q3</t>
@@ -259,15 +244,9 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>32.585000</t>
-  </si>
-  <si>
     <t>Q5</t>
   </si>
   <si>
-    <t>58.220000</t>
-  </si>
-  <si>
     <t>-17.760000</t>
   </si>
   <si>
@@ -292,10 +271,10 @@
     <t>5.1K</t>
   </si>
   <si>
-    <t>7.270000</t>
-  </si>
-  <si>
-    <t>-18.340000</t>
+    <t>9.680000</t>
+  </si>
+  <si>
+    <t>-6.880000</t>
   </si>
   <si>
     <t>R3</t>
@@ -304,28 +283,19 @@
     <t>680R</t>
   </si>
   <si>
-    <t>52.710000</t>
-  </si>
-  <si>
-    <t>-96.380000</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>65.790000</t>
-  </si>
-  <si>
-    <t>-96.920000</t>
+    <t>22.760000</t>
+  </si>
+  <si>
+    <t>-96.060000</t>
   </si>
   <si>
     <t>R5</t>
   </si>
   <si>
-    <t>6.450000</t>
-  </si>
-  <si>
-    <t>-32.140000</t>
+    <t>6.580000</t>
+  </si>
+  <si>
+    <t>-20.600000</t>
   </si>
   <si>
     <t>R6</t>
@@ -334,7 +304,7 @@
     <t>200R</t>
   </si>
   <si>
-    <t>39.320000</t>
+    <t>30.145000</t>
   </si>
   <si>
     <t>-29.430000</t>
@@ -346,7 +316,7 @@
     <t>66.160000</t>
   </si>
   <si>
-    <t>-57.720000</t>
+    <t>-70.730000</t>
   </si>
   <si>
     <t>R8</t>
@@ -367,9 +337,6 @@
     <t>R10</t>
   </si>
   <si>
-    <t>55.670000</t>
-  </si>
-  <si>
     <t>-29.550000</t>
   </si>
   <si>
@@ -385,40 +352,61 @@
     <t>10k</t>
   </si>
   <si>
-    <t>94.890000</t>
+    <t>94.430000</t>
+  </si>
+  <si>
+    <t>-78.500000</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>2.4k</t>
+  </si>
+  <si>
+    <t>91.980000</t>
   </si>
   <si>
     <t>-78.510000</t>
   </si>
   <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>2.4k</t>
-  </si>
-  <si>
-    <t>91.980000</t>
-  </si>
-  <si>
     <t>SW1</t>
   </si>
   <si>
-    <t>SW_Push</t>
+    <t>NXT</t>
   </si>
   <si>
     <t>TACTILE_SWITCH_SMD_6.0X3.5MM</t>
   </si>
   <si>
-    <t>18.590000</t>
-  </si>
-  <si>
-    <t>-97.460000</t>
+    <t>97.530000</t>
+  </si>
+  <si>
+    <t>-76.950000</t>
+  </si>
+  <si>
+    <t>SW3</t>
+  </si>
+  <si>
+    <t>RST</t>
+  </si>
+  <si>
+    <t>12.980000</t>
+  </si>
+  <si>
+    <t>-97.330000</t>
   </si>
   <si>
     <t>SW2</t>
   </si>
   <si>
-    <t>32.160000</t>
+    <t>BOOT</t>
+  </si>
+  <si>
+    <t>97.540000</t>
+  </si>
+  <si>
+    <t>-86.800000</t>
   </si>
   <si>
     <t>U1</t>
@@ -442,22 +430,25 @@
     <t>SOP-8_3.9x4.9mm_P1.27mm</t>
   </si>
   <si>
-    <t>15.020000</t>
-  </si>
-  <si>
-    <t>-28.700000</t>
+    <t>15.150000</t>
+  </si>
+  <si>
+    <t>-17.160000</t>
   </si>
   <si>
     <t>U3</t>
   </si>
   <si>
-    <t>MCP1703A-3302_SOT23</t>
-  </si>
-  <si>
-    <t>61.070000</t>
-  </si>
-  <si>
-    <t>-82.520000</t>
+    <t>SPX3819M5-L-3-3</t>
+  </si>
+  <si>
+    <t>SOT-23-5</t>
+  </si>
+  <si>
+    <t>60.110000</t>
+  </si>
+  <si>
+    <t>-90.270000</t>
   </si>
 </sst>
 </file>
@@ -467,7 +458,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -475,6 +466,11 @@
     </font>
     <font>
       <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -506,7 +502,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="15"/>
+        <fgColor indexed="14"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -523,6 +519,28 @@
       <left style="thin">
         <color indexed="10"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="10"/>
       </right>
@@ -536,40 +554,10 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="10"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="14"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
@@ -581,16 +569,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="13"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,13 +587,43 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="13"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="13"/>
       </right>
       <top style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,58 +632,28 @@
         <color indexed="13"/>
       </left>
       <right style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </left>
       <right style="thin">
-        <color indexed="14"/>
+        <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="14"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="13"/>
-      </left>
-      <right style="thin">
-        <color indexed="13"/>
-      </right>
-      <top style="thin">
-        <color indexed="13"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="13"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -675,44 +663,41 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -732,11 +717,10 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
     </indexedColors>
@@ -755,10 +739,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -935,11 +919,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -948,34 +935,34 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:tabLst/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -1223,12 +1210,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1519,7 +1506,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1800,14 +1787,14 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G39"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.33333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="20.3516" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="37" style="1" customWidth="1"/>
     <col min="4" max="4" width="9.35156" style="1" customWidth="1"/>
     <col min="5" max="5" width="10" style="1" customWidth="1"/>
@@ -1820,33 +1807,33 @@
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="20.7" customHeight="1">
-      <c r="A2" t="s" s="3">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="4"/>
+    </row>
+    <row r="2" ht="14.7" customHeight="1">
+      <c r="A2" t="s" s="5">
         <v>1</v>
       </c>
-      <c r="B2" t="s" s="4">
+      <c r="B2" t="s" s="5">
         <v>2</v>
       </c>
       <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
+      <c r="D2" t="s" s="5">
         <v>4</v>
       </c>
-      <c r="E2" t="s" s="3">
+      <c r="E2" t="s" s="5">
         <v>5</v>
       </c>
-      <c r="F2" t="s" s="3">
+      <c r="F2" t="s" s="5">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" t="s" s="5">
         <v>7</v>
       </c>
     </row>
@@ -1860,844 +1847,821 @@
       <c r="C3" t="s" s="8">
         <v>10</v>
       </c>
-      <c r="D3" t="s" s="9">
+      <c r="D3" t="s" s="8">
         <v>11</v>
       </c>
-      <c r="E3" t="s" s="9">
+      <c r="E3" t="s" s="8">
         <v>12</v>
       </c>
-      <c r="F3" t="s" s="9">
+      <c r="F3" t="s" s="8">
         <v>13</v>
       </c>
-      <c r="G3" t="s" s="9">
+      <c r="G3" t="s" s="8">
         <v>14</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="A4" t="s" s="9">
         <v>15</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" t="s" s="10">
         <v>16</v>
       </c>
-      <c r="C4" t="s" s="12">
+      <c r="C4" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="11">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s" s="11">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" t="s" s="9">
+        <v>20</v>
+      </c>
+      <c r="B5" t="s" s="10">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s" s="11">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s" s="11">
+        <v>23</v>
+      </c>
+      <c r="F5" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G5" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" t="s" s="9">
+        <v>24</v>
+      </c>
+      <c r="B6" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s" s="11">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="12">
+      <c r="D6" t="s" s="11">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="11">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" t="s" s="9">
+        <v>27</v>
+      </c>
+      <c r="B7" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s" s="11">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s" s="11">
+        <v>29</v>
+      </c>
+      <c r="F7" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" t="s" s="9">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s" s="10">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s" s="11">
+        <v>31</v>
+      </c>
+      <c r="E8" t="s" s="11">
+        <v>32</v>
+      </c>
+      <c r="F8" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" t="s" s="9">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C9" t="s" s="11">
         <v>17</v>
       </c>
-      <c r="E4" t="s" s="12">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="12">
+      <c r="D9" t="s" s="11">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s" s="11">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="G9" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" t="s" s="9">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s" s="10">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s" s="11">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s" s="11">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="11">
+        <v>39</v>
+      </c>
+      <c r="F10" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G4" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s" s="11">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s" s="12">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s" s="12">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s" s="12">
-        <v>23</v>
-      </c>
-      <c r="F5" t="s" s="12">
+      <c r="G10" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" t="s" s="9">
+        <v>40</v>
+      </c>
+      <c r="B11" t="s" s="10">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s" s="11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s" s="11">
+        <v>42</v>
+      </c>
+      <c r="E11" t="s" s="11">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G5" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="B6" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C6" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s" s="12">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s" s="12">
-        <v>26</v>
-      </c>
-      <c r="F6" t="s" s="12">
+      <c r="G11" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" t="s" s="9">
+        <v>44</v>
+      </c>
+      <c r="B12" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C12" t="s" s="11">
+        <v>46</v>
+      </c>
+      <c r="D12" t="s" s="11">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s" s="11">
+        <v>48</v>
+      </c>
+      <c r="F12" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G6" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="B7" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C7" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D7" t="s" s="12">
-        <v>28</v>
-      </c>
-      <c r="E7" t="s" s="12">
-        <v>29</v>
-      </c>
-      <c r="F7" t="s" s="12">
+      <c r="G12" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" t="s" s="9">
+        <v>49</v>
+      </c>
+      <c r="B13" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C13" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="D13" t="s" s="11">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s" s="11">
+        <v>52</v>
+      </c>
+      <c r="F13" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G13" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" t="s" s="9">
+        <v>54</v>
+      </c>
+      <c r="B14" t="s" s="10">
+        <v>45</v>
+      </c>
+      <c r="C14" t="s" s="11">
+        <v>50</v>
+      </c>
+      <c r="D14" t="s" s="11">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s" s="11">
+        <v>56</v>
+      </c>
+      <c r="F14" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="G14" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" t="s" s="9">
+        <v>58</v>
+      </c>
+      <c r="B15" t="s" s="10">
+        <v>59</v>
+      </c>
+      <c r="C15" t="s" s="11">
+        <v>60</v>
+      </c>
+      <c r="D15" t="s" s="11">
+        <v>61</v>
+      </c>
+      <c r="E15" t="s" s="11">
+        <v>62</v>
+      </c>
+      <c r="F15" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="G15" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" t="s" s="9">
+        <v>63</v>
+      </c>
+      <c r="B16" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C16" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D16" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="E16" t="s" s="11">
+        <v>67</v>
+      </c>
+      <c r="F16" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G16" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" t="s" s="9">
+        <v>68</v>
+      </c>
+      <c r="B17" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C17" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D17" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="E17" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="F17" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G17" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" t="s" s="9">
+        <v>71</v>
+      </c>
+      <c r="B18" t="s" s="10">
+        <v>72</v>
+      </c>
+      <c r="C18" t="s" s="11">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="E18" t="s" s="11">
+        <v>75</v>
+      </c>
+      <c r="F18" t="s" s="11">
+        <v>33</v>
+      </c>
+      <c r="G18" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" t="s" s="9">
+        <v>76</v>
+      </c>
+      <c r="B19" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C19" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D19" t="s" s="11">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s" s="11">
+        <v>70</v>
+      </c>
+      <c r="F19" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" t="s" s="9">
+        <v>77</v>
+      </c>
+      <c r="B20" t="s" s="10">
+        <v>64</v>
+      </c>
+      <c r="C20" t="s" s="11">
+        <v>65</v>
+      </c>
+      <c r="D20" t="s" s="11">
+        <v>69</v>
+      </c>
+      <c r="E20" t="s" s="11">
+        <v>78</v>
+      </c>
+      <c r="F20" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="9">
+        <v>79</v>
+      </c>
+      <c r="B21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s" s="11">
+        <v>82</v>
+      </c>
+      <c r="E21" t="s" s="11">
+        <v>83</v>
+      </c>
+      <c r="F21" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G7" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s" s="11">
-        <v>9</v>
-      </c>
-      <c r="C8" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D8" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="E8" t="s" s="12">
-        <v>32</v>
-      </c>
-      <c r="F8" t="s" s="12">
+      <c r="G21" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="9">
+        <v>84</v>
+      </c>
+      <c r="B22" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="C22" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D22" t="s" s="11">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s" s="11">
+        <v>87</v>
+      </c>
+      <c r="F22" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G8" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" t="s" s="10">
+      <c r="G22" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="9">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s" s="10">
+        <v>89</v>
+      </c>
+      <c r="C23" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D23" t="s" s="11">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s" s="11">
+        <v>91</v>
+      </c>
+      <c r="F23" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G23" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="9">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s" s="10">
+        <v>85</v>
+      </c>
+      <c r="C24" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D24" t="s" s="11">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s" s="11">
+        <v>94</v>
+      </c>
+      <c r="F24" t="s" s="11">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="9">
+        <v>95</v>
+      </c>
+      <c r="B25" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="C25" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s" s="11">
+        <v>97</v>
+      </c>
+      <c r="E25" t="s" s="11">
+        <v>98</v>
+      </c>
+      <c r="F25" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G25" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="9">
+        <v>99</v>
+      </c>
+      <c r="B26" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="C26" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D26" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="E26" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="F26" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G26" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" t="s" s="9">
+        <v>102</v>
+      </c>
+      <c r="B27" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="C27" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D27" t="s" s="11">
+        <v>103</v>
+      </c>
+      <c r="E27" t="s" s="11">
+        <v>104</v>
+      </c>
+      <c r="F27" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="G27" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" t="s" s="9">
+        <v>105</v>
+      </c>
+      <c r="B28" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="C28" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D28" t="s" s="11">
+        <v>106</v>
+      </c>
+      <c r="E28" t="s" s="11">
+        <v>101</v>
+      </c>
+      <c r="F28" t="s" s="11">
         <v>33</v>
       </c>
-      <c r="B9" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D9" t="s" s="12">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="F9" t="s" s="12">
+      <c r="G28" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="9">
+        <v>107</v>
+      </c>
+      <c r="B29" t="s" s="10">
+        <v>96</v>
+      </c>
+      <c r="C29" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D29" t="s" s="11">
+        <v>100</v>
+      </c>
+      <c r="E29" t="s" s="11">
+        <v>108</v>
+      </c>
+      <c r="F29" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G29" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" ht="20.05" customHeight="1">
+      <c r="A30" t="s" s="9">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="C30" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s" s="11">
+        <v>74</v>
+      </c>
+      <c r="E30" t="s" s="11">
+        <v>110</v>
+      </c>
+      <c r="F30" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G30" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" ht="20.05" customHeight="1">
+      <c r="A31" t="s" s="9">
+        <v>111</v>
+      </c>
+      <c r="B31" t="s" s="10">
+        <v>112</v>
+      </c>
+      <c r="C31" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D31" t="s" s="11">
+        <v>113</v>
+      </c>
+      <c r="E31" t="s" s="11">
+        <v>114</v>
+      </c>
+      <c r="F31" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G9" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="B10" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s" s="12">
-        <v>10</v>
-      </c>
-      <c r="D10" t="s" s="12">
-        <v>36</v>
-      </c>
-      <c r="E10" t="s" s="12">
-        <v>37</v>
-      </c>
-      <c r="F10" t="s" s="12">
+      <c r="G31" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" ht="20.05" customHeight="1">
+      <c r="A32" t="s" s="9">
+        <v>115</v>
+      </c>
+      <c r="B32" t="s" s="10">
+        <v>116</v>
+      </c>
+      <c r="C32" t="s" s="11">
+        <v>81</v>
+      </c>
+      <c r="D32" t="s" s="11">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s" s="11">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G10" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="B11" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s" s="12">
-        <v>40</v>
-      </c>
-      <c r="D11" t="s" s="12">
-        <v>41</v>
-      </c>
-      <c r="E11" t="s" s="12">
-        <v>42</v>
-      </c>
-      <c r="F11" t="s" s="12">
+      <c r="G32" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" ht="20.05" customHeight="1">
+      <c r="A33" t="s" s="9">
+        <v>119</v>
+      </c>
+      <c r="B33" t="s" s="10">
+        <v>120</v>
+      </c>
+      <c r="C33" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="D33" t="s" s="11">
+        <v>122</v>
+      </c>
+      <c r="E33" t="s" s="11">
+        <v>123</v>
+      </c>
+      <c r="F33" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G33" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="A34" t="s" s="9">
+        <v>124</v>
+      </c>
+      <c r="B34" t="s" s="10">
+        <v>125</v>
+      </c>
+      <c r="C34" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="D34" t="s" s="11">
+        <v>126</v>
+      </c>
+      <c r="E34" t="s" s="11">
+        <v>127</v>
+      </c>
+      <c r="F34" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G11" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="B12" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="C12" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="D12" t="s" s="12">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s" s="12">
-        <v>46</v>
-      </c>
-      <c r="F12" t="s" s="12">
+      <c r="G34" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="A35" t="s" s="9">
+        <v>128</v>
+      </c>
+      <c r="B35" t="s" s="10">
+        <v>129</v>
+      </c>
+      <c r="C35" t="s" s="11">
+        <v>121</v>
+      </c>
+      <c r="D35" t="s" s="11">
+        <v>130</v>
+      </c>
+      <c r="E35" t="s" s="11">
+        <v>131</v>
+      </c>
+      <c r="F35" t="s" s="11">
+        <v>53</v>
+      </c>
+      <c r="G35" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="A36" t="s" s="9">
+        <v>132</v>
+      </c>
+      <c r="B36" t="s" s="10">
+        <v>133</v>
+      </c>
+      <c r="C36" t="s" s="11">
+        <v>133</v>
+      </c>
+      <c r="D36" t="s" s="11">
+        <v>134</v>
+      </c>
+      <c r="E36" t="s" s="11">
+        <v>135</v>
+      </c>
+      <c r="F36" t="s" s="11">
+        <v>57</v>
+      </c>
+      <c r="G36" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="A37" t="s" s="9">
+        <v>136</v>
+      </c>
+      <c r="B37" t="s" s="10">
+        <v>137</v>
+      </c>
+      <c r="C37" t="s" s="11">
+        <v>138</v>
+      </c>
+      <c r="D37" t="s" s="11">
+        <v>139</v>
+      </c>
+      <c r="E37" t="s" s="11">
+        <v>140</v>
+      </c>
+      <c r="F37" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G12" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="B13" t="s" s="11">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s" s="12">
-        <v>44</v>
-      </c>
-      <c r="D13" t="s" s="12">
-        <v>48</v>
-      </c>
-      <c r="E13" t="s" s="12">
-        <v>49</v>
-      </c>
-      <c r="F13" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="G13" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="B14" t="s" s="11">
-        <v>52</v>
-      </c>
-      <c r="C14" t="s" s="12">
-        <v>53</v>
-      </c>
-      <c r="D14" t="s" s="12">
-        <v>54</v>
-      </c>
-      <c r="E14" t="s" s="12">
-        <v>55</v>
-      </c>
-      <c r="F14" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="G14" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" t="s" s="10">
-        <v>57</v>
-      </c>
-      <c r="B15" t="s" s="11">
-        <v>58</v>
-      </c>
-      <c r="C15" t="s" s="12">
-        <v>59</v>
-      </c>
-      <c r="D15" t="s" s="12">
-        <v>60</v>
-      </c>
-      <c r="E15" t="s" s="12">
-        <v>61</v>
-      </c>
-      <c r="F15" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="G15" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" t="s" s="10">
-        <v>62</v>
-      </c>
-      <c r="B16" t="s" s="11">
-        <v>63</v>
-      </c>
-      <c r="C16" t="s" s="12">
-        <v>64</v>
-      </c>
-      <c r="D16" t="s" s="12">
-        <v>65</v>
-      </c>
-      <c r="E16" t="s" s="12">
-        <v>66</v>
-      </c>
-      <c r="F16" t="s" s="12">
+      <c r="G37" t="s" s="11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="A38" t="s" s="9">
+        <v>141</v>
+      </c>
+      <c r="B38" t="s" s="10">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s" s="11">
+        <v>143</v>
+      </c>
+      <c r="D38" t="s" s="11">
+        <v>144</v>
+      </c>
+      <c r="E38" t="s" s="11">
+        <v>145</v>
+      </c>
+      <c r="F38" t="s" s="11">
         <v>13</v>
       </c>
-      <c r="G16" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" t="s" s="10">
-        <v>67</v>
-      </c>
-      <c r="B17" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="C17" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="D17" t="s" s="12">
-        <v>70</v>
-      </c>
-      <c r="E17" t="s" s="12">
-        <v>71</v>
-      </c>
-      <c r="F17" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G17" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" t="s" s="10">
-        <v>73</v>
-      </c>
-      <c r="B18" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="D18" t="s" s="12">
-        <v>74</v>
-      </c>
-      <c r="E18" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="F18" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G18" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" t="s" s="10">
-        <v>76</v>
-      </c>
-      <c r="B19" t="s" s="11">
-        <v>77</v>
-      </c>
-      <c r="C19" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="D19" t="s" s="12">
-        <v>79</v>
-      </c>
-      <c r="E19" t="s" s="12">
-        <v>80</v>
-      </c>
-      <c r="F19" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="G19" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" t="s" s="10">
-        <v>81</v>
-      </c>
-      <c r="B20" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="D20" t="s" s="12">
-        <v>82</v>
-      </c>
-      <c r="E20" t="s" s="12">
-        <v>75</v>
-      </c>
-      <c r="F20" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G20" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" t="s" s="10">
-        <v>83</v>
-      </c>
-      <c r="B21" t="s" s="11">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s" s="12">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s" s="12">
-        <v>84</v>
-      </c>
-      <c r="E21" t="s" s="12">
-        <v>85</v>
-      </c>
-      <c r="F21" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G21" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" t="s" s="10">
-        <v>86</v>
-      </c>
-      <c r="B22" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C22" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D22" t="s" s="12">
-        <v>89</v>
-      </c>
-      <c r="E22" t="s" s="12">
-        <v>90</v>
-      </c>
-      <c r="F22" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G22" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" t="s" s="10">
-        <v>91</v>
-      </c>
-      <c r="B23" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="C23" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D23" t="s" s="12">
-        <v>93</v>
-      </c>
-      <c r="E23" t="s" s="12">
-        <v>94</v>
-      </c>
-      <c r="F23" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G23" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="B24" t="s" s="11">
-        <v>96</v>
-      </c>
-      <c r="C24" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D24" t="s" s="12">
-        <v>97</v>
-      </c>
-      <c r="E24" t="s" s="12">
-        <v>98</v>
-      </c>
-      <c r="F24" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G24" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" ht="20.05" customHeight="1">
-      <c r="A25" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="B25" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C25" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D25" t="s" s="12">
-        <v>100</v>
-      </c>
-      <c r="E25" t="s" s="12">
-        <v>101</v>
-      </c>
-      <c r="F25" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G25" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" ht="20.05" customHeight="1">
-      <c r="A26" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="B26" t="s" s="11">
-        <v>92</v>
-      </c>
-      <c r="C26" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D26" t="s" s="12">
-        <v>103</v>
-      </c>
-      <c r="E26" t="s" s="12">
-        <v>104</v>
-      </c>
-      <c r="F26" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G26" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" ht="20.05" customHeight="1">
-      <c r="A27" t="s" s="10">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C27" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D27" t="s" s="12">
-        <v>107</v>
-      </c>
-      <c r="E27" t="s" s="12">
-        <v>108</v>
-      </c>
-      <c r="F27" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G27" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" ht="20.05" customHeight="1">
-      <c r="A28" t="s" s="10">
-        <v>109</v>
-      </c>
-      <c r="B28" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C28" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D28" t="s" s="12">
-        <v>110</v>
-      </c>
-      <c r="E28" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="F28" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G28" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" ht="20.05" customHeight="1">
-      <c r="A29" t="s" s="10">
-        <v>112</v>
-      </c>
-      <c r="B29" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D29" t="s" s="12">
-        <v>113</v>
-      </c>
-      <c r="E29" t="s" s="12">
-        <v>114</v>
-      </c>
-      <c r="F29" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="G29" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" ht="20.05" customHeight="1">
-      <c r="A30" t="s" s="10">
-        <v>115</v>
-      </c>
-      <c r="B30" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C30" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D30" t="s" s="12">
-        <v>116</v>
-      </c>
-      <c r="E30" t="s" s="12">
-        <v>111</v>
-      </c>
-      <c r="F30" t="s" s="12">
-        <v>56</v>
-      </c>
-      <c r="G30" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" ht="20.05" customHeight="1">
-      <c r="A31" t="s" s="10">
-        <v>117</v>
-      </c>
-      <c r="B31" t="s" s="11">
-        <v>106</v>
-      </c>
-      <c r="C31" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D31" t="s" s="12">
-        <v>118</v>
-      </c>
-      <c r="E31" t="s" s="12">
-        <v>119</v>
-      </c>
-      <c r="F31" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G31" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="32" ht="20.05" customHeight="1">
-      <c r="A32" t="s" s="10">
-        <v>120</v>
-      </c>
-      <c r="B32" t="s" s="11">
-        <v>87</v>
-      </c>
-      <c r="C32" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D32" t="s" s="12">
-        <v>79</v>
-      </c>
-      <c r="E32" t="s" s="12">
-        <v>121</v>
-      </c>
-      <c r="F32" t="s" s="12">
-        <v>72</v>
-      </c>
-      <c r="G32" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33" ht="20.05" customHeight="1">
-      <c r="A33" t="s" s="10">
-        <v>122</v>
-      </c>
-      <c r="B33" t="s" s="11">
-        <v>123</v>
-      </c>
-      <c r="C33" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D33" t="s" s="12">
-        <v>124</v>
-      </c>
-      <c r="E33" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="F33" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G33" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="34" ht="20.05" customHeight="1">
-      <c r="A34" t="s" s="10">
-        <v>126</v>
-      </c>
-      <c r="B34" t="s" s="11">
-        <v>127</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>88</v>
-      </c>
-      <c r="D34" t="s" s="12">
-        <v>128</v>
-      </c>
-      <c r="E34" t="s" s="12">
-        <v>125</v>
-      </c>
-      <c r="F34" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G34" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="35" ht="20.05" customHeight="1">
-      <c r="A35" t="s" s="10">
-        <v>129</v>
-      </c>
-      <c r="B35" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="C35" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="D35" t="s" s="12">
-        <v>132</v>
-      </c>
-      <c r="E35" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="F35" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G35" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="36" ht="20.05" customHeight="1">
-      <c r="A36" t="s" s="10">
-        <v>134</v>
-      </c>
-      <c r="B36" t="s" s="11">
-        <v>130</v>
-      </c>
-      <c r="C36" t="s" s="12">
-        <v>131</v>
-      </c>
-      <c r="D36" t="s" s="12">
-        <v>135</v>
-      </c>
-      <c r="E36" t="s" s="12">
-        <v>133</v>
-      </c>
-      <c r="F36" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G36" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="37" ht="20.05" customHeight="1">
-      <c r="A37" t="s" s="10">
-        <v>136</v>
-      </c>
-      <c r="B37" t="s" s="11">
-        <v>137</v>
-      </c>
-      <c r="C37" t="s" s="12">
-        <v>137</v>
-      </c>
-      <c r="D37" t="s" s="12">
-        <v>138</v>
-      </c>
-      <c r="E37" t="s" s="12">
-        <v>139</v>
-      </c>
-      <c r="F37" t="s" s="12">
-        <v>50</v>
-      </c>
-      <c r="G37" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38" ht="20.05" customHeight="1">
-      <c r="A38" t="s" s="10">
-        <v>140</v>
-      </c>
-      <c r="B38" t="s" s="11">
-        <v>141</v>
-      </c>
-      <c r="C38" t="s" s="12">
-        <v>142</v>
-      </c>
-      <c r="D38" t="s" s="12">
-        <v>143</v>
-      </c>
-      <c r="E38" t="s" s="12">
-        <v>144</v>
-      </c>
-      <c r="F38" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G38" t="s" s="12">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" ht="20.05" customHeight="1">
-      <c r="A39" t="s" s="10">
-        <v>145</v>
-      </c>
-      <c r="B39" t="s" s="11">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s" s="12">
-        <v>78</v>
-      </c>
-      <c r="D39" t="s" s="12">
-        <v>147</v>
-      </c>
-      <c r="E39" t="s" s="12">
-        <v>148</v>
-      </c>
-      <c r="F39" t="s" s="12">
-        <v>13</v>
-      </c>
-      <c r="G39" t="s" s="12">
+      <c r="G38" t="s" s="11">
         <v>14</v>
       </c>
     </row>
